--- a/report.xlsx
+++ b/report.xlsx
@@ -1,32 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t xml:space="preserve">medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campaign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost per user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clicks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bounces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goal 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goal 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yandex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sbereducation_god_person_202211050001_context_network_remarketing_rus_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75356584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sbereducation_god_person_202211050001_context_search_brand_rus_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74688342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sbereducation_god_person_202211050001_context_search_category_it_rus_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74721488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sbereducation_god_person_202211050001_context_search_competitors_rus_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75062511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-05</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,26 +139,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -79,45 +182,41 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -146,13 +245,9 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -190,153 +285,1040 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>430.91</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>33.1469230769231</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>353.82</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>44.2275</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>1472.18</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>105.155714285714</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>4617.49</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>98.2444680851064</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>770.92</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>19.273</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>220.78</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>36.7966666666667</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>646.31</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>80.78875</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>3934.34</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>126.914193548387</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>1560</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>30.5882352941176</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>284.91</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>94.97</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>1174.45</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>106.768181818182</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>7075.85</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>114.126612903226</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>1281.61</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>49.2926923076923</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>842.77</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>46.8205555555556</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>2106.71</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>110.879473684211</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>5177.34</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>92.4525</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>1329.34</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>45.8393103448276</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>947.52</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>72.8861538461538</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>2588.23</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>103.5292</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>8531.74</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>142.195666666667</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>